--- a/xlsx/工效学_intext.xlsx
+++ b/xlsx/工效学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>工效学</t>
   </si>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E7%B4%B0%E8%A1%80%E7%AE%A1</t>
   </si>
   <si>
-    <t>毛細血管</t>
+    <t>毛细血管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%84%8F</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Biology-stub</t>
@@ -113,9 +113,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6</t>
   </si>
   <si>
-    <t>生物学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%A6</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>天體生物學</t>
+    <t>天体生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%A6</t>
@@ -179,19 +176,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學生物學</t>
+    <t>化学生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間生物學</t>
+    <t>时间生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%9F%E6%BA%90%E8%AB%96</t>
   </si>
   <si>
-    <t>無生源論</t>
+    <t>无生源论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生態系統</t>
+    <t>生态系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E8%90%BD</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生物系統</t>
+    <t>生物系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E5%AE%98</t>
@@ -425,19 +422,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94_(%E7%94%9F%E7%89%A9%E5%AD%B8)</t>
   </si>
   <si>
-    <t>組織 (生物學)</t>
+    <t>组织 (生物学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%99%A8</t>
   </si>
   <si>
-    <t>細胞器</t>
+    <t>细胞器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biomolecular_complex</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%AD%B8%E8%AA%AA</t>
   </si>
   <si>
-    <t>細胞學說</t>
+    <t>细胞学说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81</t>
@@ -491,13 +485,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%A9%E6%85%8B</t>
   </si>
   <si>
-    <t>穩態</t>
+    <t>稳态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
@@ -509,19 +500,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A9%E6%87%89</t>
   </si>
   <si>
-    <t>適應</t>
+    <t>适应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E6%BC%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>遺傳漂變</t>
+    <t>遗传漂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B5%81%E5%8B%95</t>
   </si>
   <si>
-    <t>基因流動</t>
+    <t>基因流动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E6%BC%94%E5%8C%96</t>
@@ -539,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E8%AE%8A</t>
   </si>
   <si>
-    <t>突變</t>
+    <t>突变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>自然選擇</t>
+    <t>自然选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D%E5%BD%A2%E6%88%90</t>
@@ -557,25 +548,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E9%96%93%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>種間關係</t>
+    <t>种间关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%A3%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>動物棲地</t>
+    <t>动物栖地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E4%BD%8D</t>
@@ -605,15 +593,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>發育生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E8%A7%80%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>表觀遺傳學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Regulation_of_gene_expression</t>
   </si>
   <si>
@@ -623,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%9B%E6%95%B8%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>減數分裂</t>
+    <t>减数分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B5%B2%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>有絲分裂</t>
+    <t>有丝分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%BD%95%E5%90%8E%E4%BF%AE%E9%A5%B0</t>
@@ -641,9 +623,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%B4%E5%8C%96%E5%90%88%E7%89%A9</t>
   </si>
   <si>
@@ -653,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E9%A1%9E</t>
   </si>
   <si>
-    <t>脂類</t>
+    <t>脂类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>代謝</t>
+    <t>代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%85%B8</t>
@@ -677,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Glossary_of_botanical_terms</t>
@@ -699,9 +678,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E9%A1%9E%E6%B3%95</t>
-  </si>
-  <si>
-    <t>生物分類法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8A%9B%E5%AD%A6</t>
@@ -1516,7 +1492,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>20</v>
@@ -1542,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1571,10 +1547,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1600,10 +1576,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1629,10 +1605,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1658,10 +1634,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1687,10 +1663,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1716,10 +1692,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1745,10 +1721,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1774,10 +1750,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1803,10 +1779,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1832,10 +1808,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1861,10 +1837,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1890,10 +1866,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1919,10 +1895,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1948,10 +1924,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1977,10 +1953,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2006,10 +1982,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2035,10 +2011,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2064,10 +2040,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2093,10 +2069,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2122,10 +2098,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2151,10 +2127,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2180,10 +2156,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2209,10 +2185,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2238,10 +2214,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2267,10 +2243,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2296,10 +2272,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2325,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2354,10 +2330,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2383,10 +2359,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2412,10 +2388,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2441,10 +2417,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2470,10 +2446,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2499,10 +2475,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2528,10 +2504,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2557,10 +2533,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2586,10 +2562,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2615,10 +2591,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2644,10 +2620,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2673,10 +2649,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2702,10 +2678,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2731,10 +2707,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2760,10 +2736,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2789,10 +2765,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2818,10 +2794,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2847,10 +2823,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2876,10 +2852,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2905,10 +2881,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2934,10 +2910,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2992,10 +2968,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3021,10 +2997,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3050,10 +3026,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3079,10 +3055,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3108,10 +3084,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3137,10 +3113,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3166,10 +3142,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3195,10 +3171,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3224,10 +3200,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3253,10 +3229,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3282,10 +3258,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
@@ -3311,10 +3287,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3340,10 +3316,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -3369,10 +3345,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3398,10 +3374,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3427,10 +3403,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82" t="s">
         <v>109</v>
-      </c>
-      <c r="F82" t="s">
-        <v>110</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3456,10 +3432,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3485,10 +3461,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3514,10 +3490,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3543,10 +3519,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3572,10 +3548,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3601,10 +3577,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3630,10 +3606,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3659,10 +3635,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3688,10 +3664,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3717,10 +3693,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3746,10 +3722,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3775,10 +3751,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3804,10 +3780,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3833,10 +3809,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3862,10 +3838,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3891,10 +3867,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3920,10 +3896,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" t="s">
         <v>85</v>
-      </c>
-      <c r="F99" t="s">
-        <v>86</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3949,10 +3925,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3978,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4007,10 +3983,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4036,10 +4012,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4065,10 +4041,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4094,10 +4070,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4123,10 +4099,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4152,10 +4128,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4181,10 +4157,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4210,10 +4186,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4239,10 +4215,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4268,10 +4244,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4297,10 +4273,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4326,10 +4302,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4355,10 +4331,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4384,10 +4360,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4413,10 +4389,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4442,10 +4418,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4471,10 +4447,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -4500,10 +4476,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
